--- a/csv_extraction/invoice_data.xlsx
+++ b/csv_extraction/invoice_data.xlsx
@@ -14,90 +14,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Exporters Ref</t>
-  </si>
-  <si>
-    <t>Invoice Date</t>
-  </si>
-  <si>
-    <t>HS Code</t>
-  </si>
-  <si>
-    <t>Goods Type</t>
-  </si>
-  <si>
-    <t>Goods Description</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>HM Code</t>
-  </si>
-  <si>
-    <t>MOT</t>
-  </si>
-  <si>
-    <t>Fcr Status</t>
-  </si>
-  <si>
-    <t>2406335</t>
-  </si>
-  <si>
-    <t>2406721</t>
-  </si>
-  <si>
-    <t>INCTL/H&amp;M/025/2023 Date: 02-08-2023 Exp No: 1471- 013462-2024 Date: 17-03- 2024</t>
-  </si>
-  <si>
-    <t>inctl/h&amp;m/031/2023 date: 02-09-2023 exp no: 1471-014292-2024 date: 20-03-2024</t>
-  </si>
-  <si>
-    <t>2024-03-17</t>
-  </si>
-  <si>
-    <t>20-03-2024</t>
-  </si>
-  <si>
-    <t>6105201000</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+  <si>
+    <t>INVOICE NO</t>
+  </si>
+  <si>
+    <t>INVOICE DATE</t>
+  </si>
+  <si>
+    <t>EXPORTERS REF</t>
+  </si>
+  <si>
+    <t>HS CODE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>COMPOSITION</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>PO NO</t>
+  </si>
+  <si>
+    <t>COUNTRY ISO</t>
+  </si>
+  <si>
+    <t>FCR STATUS</t>
+  </si>
+  <si>
+    <t>2407124</t>
+  </si>
+  <si>
+    <t>2407125</t>
+  </si>
+  <si>
+    <t>2407127</t>
+  </si>
+  <si>
+    <t>2407130</t>
+  </si>
+  <si>
+    <t>1256247128</t>
+  </si>
+  <si>
+    <t>1256247137</t>
+  </si>
+  <si>
+    <t>1256247138</t>
+  </si>
+  <si>
+    <t>1256247139</t>
+  </si>
+  <si>
+    <t>24-03-2024</t>
+  </si>
+  <si>
+    <t>INCTL/H&amp;M/030/2023 DT: Date: 31-08-2023 EXP NO: 1471-015017-2024 DT: 03- 24-2024</t>
+  </si>
+  <si>
+    <t>INCTL/H&amp;M/030/2023 DT: Date: 31-08-2023 EXP NO: 1471-015018-2024 DT: 03- 24-2024</t>
+  </si>
+  <si>
+    <t>INCTL/H&amp;M/033/2023 DT: Date: 14-09-2023 EXP NO: 1471-015020-2024 DT: 03- 24-2024</t>
+  </si>
+  <si>
+    <t>INCTL/H&amp;M/022/2023 DT: Date: 30-05-2023 EXP NO: 1471-015023-2024 DT: 03- 24-2024</t>
+  </si>
+  <si>
+    <t>CCKL/H&amp;M/HB/LO/02/2023 , DT. 01-01-2023, EXP NO. 2859 041146 2024, DT. 24-03-2024</t>
+  </si>
+  <si>
+    <t>CCKL/H&amp;M/HB/LO/02/2023 , DT. 01-01-2023, EXP NO. 2859 041147 2024, DT. 24-03-2024</t>
+  </si>
+  <si>
+    <t>CCKL/H&amp;M/HB/LO/02/2023 , DT. 01-01-2023, EXP NO. 2859 041148 2024, DT. 24-03-2024</t>
+  </si>
+  <si>
+    <t>CCKL/H&amp;M/HB/LO/02/2023 , DT. 01-01-2023, EXP NO. 2859 041149 2024, DT. 24-03-2024</t>
+  </si>
+  <si>
+    <t>6109100090</t>
+  </si>
+  <si>
+    <t>610910001</t>
+  </si>
+  <si>
+    <t>6105100000</t>
   </si>
   <si>
     <t>6109100010</t>
   </si>
   <si>
+    <t>6104620000</t>
+  </si>
+  <si>
+    <t>Vest top Men Jersey</t>
+  </si>
+  <si>
+    <t>T-shirt Men Jersey</t>
+  </si>
+  <si>
     <t>Polo shirt Men Jersey</t>
   </si>
   <si>
-    <t>T-shirt Men Jersey</t>
-  </si>
-  <si>
-    <t>62% Recycled Polyester 33% BCI Cotton 5%</t>
-  </si>
-  <si>
-    <t>100% BCI COTTON ( 3 PCS PACK )</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>853707-5848</t>
-  </si>
-  <si>
-    <t>857677-5832</t>
-  </si>
-  <si>
-    <t>OF</t>
-  </si>
-  <si>
-    <t>OL</t>
+    <t>Shorts Men Jersey</t>
+  </si>
+  <si>
+    <t>95% BCI COTTON 5% ELASTANE</t>
+  </si>
+  <si>
+    <t>100% IN-Conversion Cotton</t>
+  </si>
+  <si>
+    <t>100% Bci Cotton</t>
+  </si>
+  <si>
+    <t>100% BCI COTTON</t>
+  </si>
+  <si>
+    <t>58% BCI Cotton 42% Recycled Polyester</t>
+  </si>
+  <si>
+    <t>100% BCI Cotton</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>879425-5832</t>
+  </si>
+  <si>
+    <t>870597-5882</t>
+  </si>
+  <si>
+    <t>874371-5828</t>
+  </si>
+  <si>
+    <t>870900-5832</t>
+  </si>
+  <si>
+    <t>884757-5832</t>
+  </si>
+  <si>
+    <t>885025-5832</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>BE</t>
   </si>
 </sst>
 </file>
@@ -455,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,28 +591,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -527,28 +620,202 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/csv_extraction/invoice_data.xlsx
+++ b/csv_extraction/invoice_data.xlsx
@@ -14,126 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>INVOICE NO</t>
   </si>
   <si>
-    <t>INVOICE DATE</t>
-  </si>
-  <si>
-    <t>EXPORTERS REF</t>
-  </si>
-  <si>
-    <t>HS CODE</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>COMPOSITION</t>
-  </si>
-  <si>
-    <t>QUANTITY</t>
-  </si>
-  <si>
-    <t>PO NO</t>
-  </si>
-  <si>
-    <t>COUNTRY ISO</t>
-  </si>
-  <si>
-    <t>TO PAY</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>FCR STATUS</t>
-  </si>
-  <si>
-    <t>2407112</t>
-  </si>
-  <si>
-    <t>2407122</t>
-  </si>
-  <si>
-    <t>14268</t>
-  </si>
-  <si>
-    <t>24-03-2024</t>
-  </si>
-  <si>
-    <t>16-10-2024</t>
-  </si>
-  <si>
-    <t>INCTL/H&amp;M/033/2023 DT: Date: 14-09-2023 EXP NO: 1471-015005-2024 DT: 03- 24-2024</t>
-  </si>
-  <si>
-    <t>INCTL/H&amp;M/030/2023 DT: Date: 31-08-2023 EXP NO: 1471-015015-2024 DT: 03- 24-2024</t>
-  </si>
-  <si>
-    <t>LSL-HNM-2024-06 Date: 2024-03-01 Exp No. :2969/023432/24 Date:2024-10-16</t>
-  </si>
-  <si>
-    <t>6105100000</t>
-  </si>
-  <si>
-    <t>6109100090</t>
-  </si>
-  <si>
-    <t>Polo shirt Men Jersey</t>
-  </si>
-  <si>
-    <t>Vest top Men Jersey</t>
-  </si>
-  <si>
-    <t>Trousers Men Woven</t>
-  </si>
-  <si>
-    <t>100% BCI COTTON</t>
-  </si>
-  <si>
-    <t>95% BCI Cotton 5% Elastane</t>
-  </si>
-  <si>
-    <t>100% COTTON , CAT-6</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>983</t>
-  </si>
-  <si>
-    <t>884770-5832</t>
-  </si>
-  <si>
-    <t>883240-5832</t>
-  </si>
-  <si>
-    <t>230305-5683</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>203.32</t>
-  </si>
-  <si>
-    <t>98.56</t>
-  </si>
-  <si>
-    <t>8198.22</t>
-  </si>
-  <si>
-    <t>Chittagong</t>
+    <t>CARTONS</t>
+  </si>
+  <si>
+    <t>GROSS WEIGHT</t>
+  </si>
+  <si>
+    <t>1676252511-3359</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>129.05</t>
   </si>
 </sst>
 </file>
@@ -491,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,134 +405,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/csv_extraction/invoice_data.xlsx
+++ b/csv_extraction/invoice_data.xlsx
@@ -14,24 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>INVOICE NO</t>
   </si>
   <si>
-    <t>CARTONS</t>
-  </si>
-  <si>
-    <t>GROSS WEIGHT</t>
+    <t>TO PAY</t>
+  </si>
+  <si>
+    <t>PORT OF LOADING</t>
+  </si>
+  <si>
+    <t>EXPORTER</t>
   </si>
   <si>
     <t>1676252511-3359</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>129.05</t>
+    <t>2006.92</t>
+  </si>
+  <si>
+    <t>Chittagong</t>
+  </si>
+  <si>
+    <t>Fakir Fashion Ltd
+89, Motijheel C/A,
+Lucky Chamber (2nd Floor)
+Dhaka-1000,Bangladesh.
+E-mail:akon@fakirfashion.com
+Factory:Dohargaon,Baliapara,Rupgonj,
+Narayangonj-1400,Bangladesh.
+GB No.GB801930315</t>
   </si>
 </sst>
 </file>
@@ -389,13 +402,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,16 +418,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
